--- a/docs/v-表 B.1  0 岁～6 岁儿童发育行为评估量表（儿心量表-Ⅱ)操作方法和测查通过要求.xlsx
+++ b/docs/v-表 B.1  0 岁～6 岁儿童发育行为评估量表（儿心量表-Ⅱ)操作方法和测查通过要求.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="767">
   <si>
     <r>
       <rPr>
@@ -11829,89 +11829,6 @@
         <charset val="134"/>
       </rPr>
       <t>睡觉， 不会在白天出来抓老鼠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：标注 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">R </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的测查项目表示该项目的表现可以通过询问家长获得。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：标注*的测查项目表示该项目如果未通过需要引起注意。</t>
     </r>
   </si>
 </sst>
@@ -11925,7 +11842,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -12109,11 +12026,6 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="SimHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -12580,7 +12492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12591,12 +12503,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12677,7 +12583,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2470785" y="119998490"/>
+          <a:off x="2470785" y="119490490"/>
           <a:ext cx="2230120" cy="32385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13007,10 +12913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -15902,18 +15808,10 @@
         <v>766</v>
       </c>
     </row>
-    <row r="263" ht="42.6" customHeight="1" spans="1:3">
-      <c r="A263" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-    </row>
-    <row r="264" ht="2.6" customHeight="1"/>
+    <row r="263" ht="2.6" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A264:C264"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
